--- a/docs/Costing.xlsx
+++ b/docs/Costing.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28209"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04CC988D-9B07-449C-A0F5-EBFDCC1BA7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C716CBF-114E-45E9-A0DA-9BC981AB3EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="18">
   <si>
     <t xml:space="preserve">
 </t>
@@ -126,12 +126,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD4D4D4"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -169,17 +169,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -195,18 +184,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -217,14 +196,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,62 +561,62 @@
   <dimension ref="A2:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="9.140625" style="9"/>
-    <col min="5" max="7" width="9.140625" style="4"/>
-    <col min="8" max="9" width="11" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="7.140625" style="8" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="5"/>
+    <col min="4" max="4" width="9.140625" style="8"/>
+    <col min="5" max="7" width="9.140625" style="5"/>
+    <col min="8" max="9" width="11" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="1">
         <v>1500</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="1">
         <v>3000</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="1">
         <v>1200</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="1">
         <v>6000</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="1">
         <v>1000</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="1">
         <v>2500</v>
       </c>
     </row>
@@ -626,28 +624,28 @@
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="1">
         <v>1500</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="1">
         <v>3000</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="2">
         <v>30</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="2">
         <v>300</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="1">
         <v>1000</v>
       </c>
     </row>
@@ -655,28 +653,28 @@
       <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="1">
         <v>1500</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="1">
         <v>3000</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>50</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>200</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="1">
         <v>1000</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="1">
         <v>2500</v>
       </c>
     </row>
@@ -684,28 +682,28 @@
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="1">
         <v>5000</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="1">
         <v>10000</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
         <v>500</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="1">
         <v>2000</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="G6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <v>700</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="1">
         <v>1500</v>
       </c>
     </row>
@@ -713,28 +711,28 @@
       <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="1">
         <v>10000</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="1">
         <v>20000</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>100</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="2">
         <v>200</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="2">
         <v>500</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="1">
         <v>1500</v>
       </c>
     </row>
@@ -742,28 +740,28 @@
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="1">
         <v>1000</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="1">
         <v>2000</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
         <v>120</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="1">
         <v>1200</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="G8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
         <v>500</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="1">
         <v>1500</v>
       </c>
     </row>
@@ -771,28 +769,28 @@
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="1">
         <v>5000</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="1">
         <v>10000</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="2">
         <v>500</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="1">
         <v>1500</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -800,28 +798,28 @@
       <c r="A10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="1">
         <v>2000</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="1">
         <v>5000</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
         <v>500</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="1">
         <v>1500</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="G10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -829,28 +827,28 @@
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="1">
         <v>3000</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="1">
         <v>6000</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="D11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -858,28 +856,28 @@
       <c r="A12" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="1">
         <v>1000</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="1">
         <v>3000</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="D12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -887,28 +885,28 @@
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="1">
         <v>31500</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="1">
         <v>65000</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <v>2980</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="1">
         <v>12630</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="G13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
         <v>3000</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="1">
         <v>8000</v>
       </c>
     </row>
@@ -916,28 +914,28 @@
       <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -945,28 +943,28 @@
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="1">
         <v>34480</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="1">
         <v>77630</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="D15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -974,28 +972,28 @@
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1003,28 +1001,28 @@
       <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1032,28 +1030,28 @@
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1061,28 +1059,28 @@
       <c r="A19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6" t="s">
+      <c r="C19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1090,57 +1088,55 @@
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="C20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" ht="21.75" customHeight="1">
       <c r="A21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
         <v>24000</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="1">
         <v>60000</v>
       </c>
     </row>
@@ -1148,28 +1144,28 @@
       <c r="A22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5">
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
         <v>2000</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="1">
         <v>5500</v>
       </c>
     </row>
@@ -1177,64 +1173,65 @@
       <c r="A23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="5">
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
         <v>26000</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="1">
         <v>65500</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1">
-      <c r="A24" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="A24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:I2"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
